--- a/biology/Botanique/Vincetoxicum_floribundum/Vincetoxicum_floribundum.xlsx
+++ b/biology/Botanique/Vincetoxicum_floribundum/Vincetoxicum_floribundum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincetoxicum floribundum est une espèce de plantes à fleurs de la famille des Apocynaceae. Elle est originaire d'Australie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincetoxicum floribundum est une espèce de plantes à fleurs de la famille des Apocynaceae. Elle est originaire d'Australie.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits lactescents sont consommés ainsi que les jeunes feuilles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits lactescents sont consommés ainsi que les jeunes feuilles.
 </t>
         </is>
       </c>
@@ -568,11 +584,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Vincetoxicum floribundum (R.Br.) Kuntze[2].
-L'espèce a été initialement classée dans le genre Cynanchum sous le basionyme Cynanchum floribundum R.Br.[2].
-Vincetoxicum floribundum a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Vincetoxicum floribundum (R.Br.) Kuntze.
+L'espèce a été initialement classée dans le genre Cynanchum sous le basionyme Cynanchum floribundum R.Br..
+Vincetoxicum floribundum a pour synonymes :
 Cynanchum floribundum R.Br.
 Cynoctonum floribundum (R.Br.) Decne.
 Schizocorona floribunda (R.Br.) F.Muell.</t>
